--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetCricketEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetCricketEmptyMarketsList.xlsx
@@ -12,21 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>3753843  This game has no available Markets</t>
+    <t>3757681  This game has no available Markets</t>
   </si>
   <si>
-    <t>3716471  This game has no available Markets</t>
+    <t>3757387  This game has no available Markets</t>
   </si>
   <si>
-    <t>3716473  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3716477  This game has no available Markets</t>
-  </si>
-  <si>
-    <t>3716483  This game has no available Markets</t>
+    <t>3755768  This game has no available Markets</t>
   </si>
 </sst>
 </file>
@@ -71,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -95,16 +89,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetCricketEmptyMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/Craftbet_003_EmptyMarketList/1CraftbetCricketEmptyMarketsList.xlsx
@@ -14,13 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>3757681  This game has no available Markets</t>
+    <t>3765112  This game has no available Markets:  Start time = 2022-09-15T13:30:00</t>
   </si>
   <si>
-    <t>3757387  This game has no available Markets</t>
+    <t>3765114  This game has no available Markets:  Start time = 2022-09-15T13:30:00</t>
   </si>
   <si>
-    <t>3755768  This game has no available Markets</t>
+    <t>3765116  This game has no available Markets:  Start time = 2022-09-15T13:30:00</t>
   </si>
 </sst>
 </file>
